--- a/IBRK_SCREENER/SCREW STRANGL/ticker_list.xlsx
+++ b/IBRK_SCREENER/SCREW STRANGL/ticker_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ANTON\IBRK_SCREENER\SCREW STRANGL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IBKR\IBRK_SCREENER\SCREW STRANGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5D429-9F11-47D1-90A6-DAFE8677FE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18495" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18495" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,126 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ticker</t>
   </si>
   <si>
-    <t>AMLP</t>
-  </si>
-  <si>
-    <t>EEM</t>
-  </si>
-  <si>
-    <t>EFA</t>
-  </si>
-  <si>
-    <t>EWZ</t>
-  </si>
-  <si>
-    <t>EZU</t>
-  </si>
-  <si>
-    <t>GDX</t>
-  </si>
-  <si>
-    <t>GDXJ</t>
-  </si>
-  <si>
     <t>GLD</t>
-  </si>
-  <si>
-    <t>IBB</t>
-  </si>
-  <si>
-    <t>IJH</t>
-  </si>
-  <si>
-    <t>IJR</t>
-  </si>
-  <si>
-    <t>INDA</t>
-  </si>
-  <si>
-    <t>IWM</t>
-  </si>
-  <si>
-    <t>IXC</t>
-  </si>
-  <si>
-    <t>IYR</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>REMX</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>URA</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>VNQ</t>
-  </si>
-  <si>
-    <t>XLB</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>XLF</t>
-  </si>
-  <si>
-    <t>XLI</t>
-  </si>
-  <si>
-    <t>XLP</t>
-  </si>
-  <si>
-    <t>XLU</t>
-  </si>
-  <si>
-    <t>XLV</t>
-  </si>
-  <si>
-    <t>XOP</t>
-  </si>
-  <si>
-    <t>EWW</t>
-  </si>
-  <si>
-    <t>EWA</t>
-  </si>
-  <si>
-    <t>EWJ</t>
-  </si>
-  <si>
-    <t>EWY</t>
-  </si>
-  <si>
-    <t>EWG</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>EWC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -498,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,184 +409,112 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
